--- a/data/trans_dic/P23_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>48,17%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>19,1%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>28,99%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>40,79%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,75; 34,89</t>
+          <t>11,55; 27,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,18; 33,36</t>
+          <t>20,22; 33,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,01; 28,28</t>
+          <t>14,42; 27,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,07; 40,97</t>
+          <t>18,82; 39,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,79; 30,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,45; 33,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 25,41</t>
+          <t>13,76; 26,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,87; 37,95</t>
+          <t>26,2; 37,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 30,13</t>
+          <t>17,88; 26,33</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,99; 32,17</t>
+          <t>39,73; 57,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,09; 24,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>29,29; 37,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,71; 24,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>24,78; 33,98</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,68; 25,17</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>33,62; 47,98</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>16,98%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,25%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,1%</t>
+          <t>29,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>25,57%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>22,01%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>30,6%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 23,73</t>
+          <t>15,16; 24,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 20,99</t>
+          <t>12,85; 22,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 22,24</t>
+          <t>12,97; 20,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,25; 26,49</t>
+          <t>24,8; 36,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,63; 32,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,51; 30,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,85; 27,48</t>
+          <t>25,75; 35,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,8; 29,94</t>
+          <t>23,41; 30,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,2; 26,9</t>
+          <t>20,86; 28,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,21; 24,11</t>
+          <t>26,72; 36,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,96; 23,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,19; 26,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>21,3; 28,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19,45; 25,01</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,85; 23,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>26,73; 34,98</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>17,09%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>21,51%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>21,26%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>18,4%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>20,04%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,76%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>20,89%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,14; 22,24</t>
+          <t>12,65; 24,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 16,34</t>
+          <t>9,58; 18,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 17,25</t>
+          <t>9,86; 17,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 19,63</t>
+          <t>13,11; 22,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,93; 27,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,23; 26,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,89</t>
+          <t>17,22; 26,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,1; 23,72</t>
+          <t>18,3; 25,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,35</t>
+          <t>18,02; 24,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 20,65</t>
+          <t>19,42; 28,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,08; 19,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,12; 19,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>16,04; 23,27</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,11; 20,78</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14,85; 19,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 24,28</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,45%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>26,59%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22,1%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>23,47%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>22,24%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26,33%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 22,8</t>
+          <t>15,61; 24,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,44; 20,18</t>
+          <t>14,19; 22,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,11; 19,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 26,96</t>
+          <t>20,0; 30,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,31; 28,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,1; 28,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,34; 24,48</t>
+          <t>23,84; 32,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,69; 29,17</t>
+          <t>21,97; 31,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,92; 24,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,46; 23,74</t>
+          <t>23,05; 33,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 21,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,15; 27,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 26,8</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19,13; 26,45</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 30,24</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,04%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>19,44%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 21,67</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15,23; 19,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13,88; 18,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22,44; 29,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23,56; 28,5</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 28,46</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,5; 24,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28,7; 34,71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>20,89; 24,29</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20,5; 23,76</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 21,35</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>26,68; 30,89</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,49%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>60412</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>126144</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>137241</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>129106</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>81607</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>184931</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>189512</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>302718</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>142019</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>311075</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>326753</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>431824</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37464; 88240</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>98348; 161740</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>98076; 184406</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>80921; 168757</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>57720; 113139</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>153683; 219776</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>156245; 230169</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>249658; 358224</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>109408; 180632</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>265906; 364636</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>274676; 391164</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>355850; 507876</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>219.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>174578</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>196022</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>256073</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>316010</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>293709</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>321870</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>357664</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>329552</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>468287</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>517892</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>613738</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>645562</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>138748; 220859</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>148321; 259047</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>202592; 323656</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>260736; 386950</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>252329; 350785</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>280709; 369781</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>306451; 417514</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>282778; 386135</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>403703; 536581</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>457710; 588534</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>540940; 697509</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>563890; 737884</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>121396</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>101135</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>137839</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>142425</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>163643</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>202462</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>243450</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>212211</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>285039</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>303596</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>381289</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>354635</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>89147; 172384</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>76945; 144908</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>105526; 182776</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>106527; 184677</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>131016; 203012</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>167936; 238566</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>206314; 285863</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>171868; 253244</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>235088; 340951</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>260039; 357559</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>328978; 439888</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>302850; 412137</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>275078</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>150103</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>263754</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>375145</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>192904</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>267546</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>650222</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>343006</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>531300</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>219825; 343944</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>115940; 187012</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>212769; 328290</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>324870; 436494</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>159404; 226806</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>219880; 321588</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>572692; 742705</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>295062; 407893</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>458930; 610210</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>562.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>662.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>644.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>631463</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>573404</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>531153</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>851295</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>914104</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>902166</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>790627</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1112027</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1545567</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1475570</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1321780</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1963322</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>550782; 726431</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>496587; 649670</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>459870; 626413</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>753442; 974624</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>829732; 1003894</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>831231; 975928</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>715150; 865469</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1011724; 1223831</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1436337; 1670264</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1370992; 1589221</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>1228510; 1451679</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>1836305; 2126290</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
